--- a/medicine/Psychotrope/Andreas_Larsson_(sommelier)/Andreas_Larsson_(sommelier).xlsx
+++ b/medicine/Psychotrope/Andreas_Larsson_(sommelier)/Andreas_Larsson_(sommelier).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andreas Larsson (né le 18 mars 1972) à Stockholm est un sommelier suédois élu « Meilleur sommelier du monde 2007 ».
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À 16 ans, Andreas entre à l'école d'hôtellerie pour être chef puis travaille comme chef durant sept ans.
 En 1996, lors d'un voyage en France, il découvre le monde du vin avec les vignobles de Bourgogne et de la vallée du Rhône.
@@ -544,7 +558,9 @@
           <t>Palmarès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2001, 2002 et 2003 - Meilleur sommelier de Suède
 2002 - Meilleur sommelier des pays nordiques
